--- a/biology/Botanique/Kettle_Foods/Kettle_Foods.xlsx
+++ b/biology/Botanique/Kettle_Foods/Kettle_Foods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Kettle Foods est une entreprise agroalimentaire américaine, dont le siège est situé à Salem (Oregon), spécialisée dans la production de chips de pommes de terre (ou croustilles), chips tortillas et beurre de fruits secs. Kettle Foods est également implantée à Norwich (Royaume-Uni). En 2006, cette marque de chips était considérée comme la plus importante marque de croustilles naturelles aux États-Unis[1].
+Kettle Foods est une entreprise agroalimentaire américaine, dont le siège est situé à Salem (Oregon), spécialisée dans la production de chips de pommes de terre (ou croustilles), chips tortillas et beurre de fruits secs. Kettle Foods est également implantée à Norwich (Royaume-Uni). En 2006, cette marque de chips était considérée comme la plus importante marque de croustilles naturelles aux États-Unis.
 Fondée en 1978 par Cameron Healy, l'entreprise a été acquise en 2010 par le groupe californien Diamond Foods, spécialiste des fruits secs.
 Kettle est distribué en France par la société Fresh Food Village.
 </t>
